--- a/AGTF30/define_inputs.xlsx
+++ b/AGTF30/define_inputs.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Take-off" sheetId="11" r:id="rId1"/>
-    <sheet name="Burst" sheetId="9" r:id="rId2"/>
-    <sheet name="Chop" sheetId="10" r:id="rId3"/>
+    <sheet name="Chop" sheetId="10" r:id="rId2"/>
+    <sheet name="Burst" sheetId="9" r:id="rId3"/>
     <sheet name="Steps" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -30,7 +30,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -39,7 +39,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 0 - off
@@ -56,7 +56,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -65,7 +65,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 0 - off
@@ -92,7 +92,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -101,7 +101,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 0 - off
@@ -118,7 +118,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -127,7 +127,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 0 - off
@@ -154,7 +154,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -163,7 +163,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 0 - off
@@ -180,7 +180,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -189,7 +189,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 0 - off
@@ -216,7 +216,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -225,7 +225,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 0 - off
@@ -242,7 +242,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -251,7 +251,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 0 - off
@@ -385,14 +385,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -833,24 +833,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="36.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -864,7 +864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -881,13 +881,16 @@
         <v>10</v>
       </c>
       <c r="F2" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="H2" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -901,7 +904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -915,7 +918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -929,7 +932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -940,15 +943,27 @@
         <v>0</v>
       </c>
       <c r="D6" s="1">
+        <v>40</v>
+      </c>
+      <c r="E6" s="1">
+        <v>40</v>
+      </c>
+      <c r="F6" s="1">
+        <v>40</v>
+      </c>
+      <c r="G6" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
@@ -962,7 +977,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -976,12 +991,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="4"/>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -992,19 +1007,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1.5373000000000001</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1.5373000000000001</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
@@ -1015,10 +1021,10 @@
         <v>27</v>
       </c>
       <c r="D12" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -1032,7 +1038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -1046,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -1057,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="1">
-        <v>6100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3891</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -1074,8 +1080,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -1098,24 +1104,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="36.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1129,7 +1135,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1143,19 +1149,16 @@
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1">
-        <v>20</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="G2" s="1">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="H2" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1166,10 +1169,19 @@
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1180,10 +1192,19 @@
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1197,7 +1218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1208,27 +1229,24 @@
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E6" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F6" s="1">
         <v>40</v>
       </c>
       <c r="G6" s="1">
-        <v>80</v>
-      </c>
-      <c r="H6" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
@@ -1239,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -1256,12 +1274,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="4"/>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -1275,7 +1293,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
@@ -1289,7 +1307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -1303,7 +1321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -1317,7 +1335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -1331,7 +1349,7 @@
         <v>3891</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -1345,8 +1363,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -1369,24 +1387,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="36.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1400,7 +1418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1414,16 +1432,19 @@
         <v>0</v>
       </c>
       <c r="E2" s="1">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1">
         <v>20</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>20.100000000000001</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1434,19 +1455,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1457,19 +1469,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1483,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1494,24 +1497,27 @@
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E6" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F6" s="1">
         <v>40</v>
       </c>
       <c r="G6" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="H6" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
@@ -1522,10 +1528,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -1539,12 +1545,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="4"/>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -1558,7 +1564,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
@@ -1572,7 +1578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -1586,7 +1592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -1600,7 +1606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -1614,7 +1620,7 @@
         <v>3891</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -1628,8 +1634,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -1658,18 +1664,18 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="36.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1683,7 +1689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1778,7 +1784,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1792,7 +1798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1806,7 +1812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1820,7 +1826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1834,12 +1840,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
@@ -1934,7 +1940,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -1948,12 +1954,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="4"/>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -1967,7 +1973,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
@@ -1981,7 +1987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -1995,7 +2001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -2009,7 +2015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -2023,7 +2029,7 @@
         <v>6314.82</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -2037,8 +2043,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
